--- a/biology/Botanique/Jardins_de_la_Chatonnière/Jardins_de_la_Chatonnière.xlsx
+++ b/biology/Botanique/Jardins_de_la_Chatonnière/Jardins_de_la_Chatonnière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardins_de_la_Chatonni%C3%A8re</t>
+          <t>Jardins_de_la_Chatonnière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les jardins de la Chatonnière situés à Azay-le-Rideau (Indre-et-Loire)  allient la fantaisie à une pensée savante. 
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardins_de_la_Chatonni%C3%A8re</t>
+          <t>Jardins_de_la_Chatonnière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Les Jardins</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1. Au sud du castel dans un salon de verdure surplombé de hauts tilleuls er d'ifs en cône, le vallon de l'Elégance (créé en 1996) se présente raffiné, orné de statues, de vases, de bosquets et de points de vue. Ses glacières, ses labyrinthes et ses parterres fleuris alternent selon les saisons un parterre de narcisses en mars, de tulipes en avril, de roses en mai de dahlias en été et d'un million de cyclamens en automne. Une aquarelle du baron Reille datée de 1933 représente cette façade avec la terrasse créée en 1893 visible sur la photo ci-jointe mais supprimée en 2009.
 2. Caché de toutes parts, protégé de vents du nord par un coteau embaumé de mille rosiers couleur feu, le Jardin de l'Abondance (créé en 2000) découvre ses plantes potagères entre buis taillés. Fraises, poireaux, aubergines, basilic, ciboulette, persil, tomates, céleris, choux blancs et rouges, blettes rouges et poivrons rouges s'inscrivent dans une feuille de rosier dont les nervures sont des allées. 
